--- a/Plan de pruebas.xlsx
+++ b/Plan de pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lobito\Desktop\ChallengeQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{822CA221-1D28-4F6A-8A5F-445CE0CF2B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5562C2-A769-453F-8976-469654DE0738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
   <si>
     <t>Realizado por: Nicolas Bertoni</t>
   </si>
@@ -523,6 +523,9 @@
     </r>
   </si>
   <si>
+    <t>El usuario debe poder desloguearse luego de realizar la compra.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -555,25 +558,16 @@
 Usuario: problem_user
 Password: secret_sauce
 Presionar LogIn
-Seleccionar un producto de la lista.
-Acceder al checkout.
-Completar los campos de:
-First Name: Gabriel
-Last Name: Florescu</t>
+Ir al menu desplegable en el tope izquierdo
+presionar "Logout"</t>
     </r>
-  </si>
-  <si>
-    <t>Al no poder avanzar desde el campo anterior por el bug mencionado, no se puede completar el proceso de compra para luego desloguearse. Pero si puede desloguearse sin hacer la compra.</t>
-  </si>
-  <si>
-    <t>El usuario debe poder desloguearse luego de realizar la compra.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -684,12 +678,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
@@ -754,7 +742,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -783,12 +771,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFCC4125"/>
       </patternFill>
     </fill>
   </fills>
@@ -917,7 +899,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -996,6 +978,36 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1010,7 +1022,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1018,48 +1036,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1282,8 +1258,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1301,20 +1277,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="33"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="43"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -1329,20 +1305,20 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="33"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="43"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1357,20 +1333,20 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="29"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="39"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1385,22 +1361,22 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="29"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="39"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1415,22 +1391,22 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="29"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="39"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -1445,22 +1421,22 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="29"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="39"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -1475,22 +1451,22 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="29"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="39"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1505,24 +1481,24 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="37"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="28" t="s">
+      <c r="A8" s="49"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="29"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="39"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="38" t="s">
+      <c r="K8" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="29"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="39"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1599,16 +1575,16 @@
       <c r="B10" s="9">
         <v>5</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="28" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="11" t="s">
@@ -1641,22 +1617,22 @@
         <v>2</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="28" t="s">
         <v>40</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="47" t="s">
+      <c r="H11" s="35" t="s">
         <v>19</v>
       </c>
       <c r="I11" s="13"/>
@@ -1683,22 +1659,22 @@
         <v>3</v>
       </c>
       <c r="B12" s="14"/>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="28" t="s">
         <v>25</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="47" t="s">
+      <c r="H12" s="35" t="s">
         <v>19</v>
       </c>
       <c r="I12" s="13"/>
@@ -1725,22 +1701,22 @@
         <v>4</v>
       </c>
       <c r="B13" s="14"/>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="28" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="28" t="s">
         <v>29</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="47" t="s">
+      <c r="H13" s="35" t="s">
         <v>19</v>
       </c>
       <c r="I13" s="13"/>
@@ -1773,20 +1749,20 @@
       <c r="D14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="28" t="s">
         <v>48</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="47" t="s">
+      <c r="H14" s="35" t="s">
         <v>19</v>
       </c>
       <c r="I14" s="15"/>
-      <c r="J14" s="42" t="s">
+      <c r="J14" s="31" t="s">
         <v>36</v>
       </c>
       <c r="K14" s="14"/>
@@ -1811,26 +1787,26 @@
         <v>6</v>
       </c>
       <c r="B15" s="14"/>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="28" t="s">
         <v>49</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="47" t="s">
+      <c r="H15" s="35" t="s">
         <v>19</v>
       </c>
       <c r="I15" s="15"/>
-      <c r="J15" s="42" t="s">
+      <c r="J15" s="31" t="s">
         <v>36</v>
       </c>
       <c r="K15" s="14"/>
@@ -1855,22 +1831,22 @@
         <v>7</v>
       </c>
       <c r="B16" s="14"/>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="28" t="s">
         <v>40</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="47" t="s">
+      <c r="H16" s="35" t="s">
         <v>19</v>
       </c>
       <c r="I16" s="13"/>
@@ -1897,22 +1873,22 @@
         <v>8</v>
       </c>
       <c r="B17" s="14"/>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="46" t="s">
+      <c r="G17" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="47" t="s">
+      <c r="H17" s="35" t="s">
         <v>19</v>
       </c>
       <c r="I17" s="13"/>
@@ -1939,28 +1915,28 @@
         <v>9</v>
       </c>
       <c r="B18" s="14"/>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="28" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="39" t="s">
+      <c r="F18" s="28" t="s">
         <v>29</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="48" t="s">
+      <c r="H18" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="41" t="s">
+      <c r="I18" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="J18" s="49" t="s">
+      <c r="J18" s="37" t="s">
         <v>52</v>
       </c>
       <c r="K18" s="14"/>
@@ -1985,28 +1961,26 @@
         <v>5</v>
       </c>
       <c r="B19" s="14"/>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="44" t="s">
+      <c r="D19" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="39" t="s">
+      <c r="E19" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="28" t="s">
         <v>50</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="43" t="s">
-        <v>20</v>
+      <c r="H19" s="35" t="s">
+        <v>19</v>
       </c>
       <c r="I19" s="15"/>
-      <c r="J19" s="50" t="s">
-        <v>55</v>
-      </c>
+      <c r="J19" s="31"/>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>

--- a/Plan de pruebas.xlsx
+++ b/Plan de pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lobito\Desktop\ChallengeQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5562C2-A769-453F-8976-469654DE0738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18DF2DE-CB84-40F9-848A-3AC904E3C172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
   <si>
     <t>Realizado por: Nicolas Bertoni</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>Ticket JIRA ID</t>
-  </si>
-  <si>
-    <t>El Usuario deberia poder ingresar a la plataforma de forma normal.</t>
   </si>
   <si>
     <t>S</t>
@@ -448,13 +445,7 @@
     <t>User Logout (problem_user)</t>
   </si>
   <si>
-    <t>El usuario debe poder desloguearle luego de realizar la compra.</t>
-  </si>
-  <si>
     <t>El usuario deberia poder ingresar a la plataforma de forma normal.</t>
-  </si>
-  <si>
-    <t>El Usuario debe poder desloguear luego de realizar la compra.</t>
   </si>
   <si>
     <r>
@@ -561,6 +552,12 @@
 Ir al menu desplegable en el tope izquierdo
 presionar "Logout"</t>
     </r>
+  </si>
+  <si>
+    <t>El Usuario debe poder desloguear.</t>
+  </si>
+  <si>
+    <t>El usuario debe poder desloguear.</t>
   </si>
 </sst>
 </file>
@@ -1258,8 +1255,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1452,7 +1449,7 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
@@ -1576,22 +1573,22 @@
         <v>5</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="H10" s="12" t="s">
         <v>18</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>19</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="10"/>
@@ -1618,22 +1615,22 @@
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>23</v>
-      </c>
       <c r="E11" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="35" t="s">
         <v>18</v>
-      </c>
-      <c r="H11" s="35" t="s">
-        <v>19</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="10"/>
@@ -1660,22 +1657,22 @@
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>25</v>
-      </c>
       <c r="G12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="35" t="s">
         <v>18</v>
-      </c>
-      <c r="H12" s="35" t="s">
-        <v>19</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="10"/>
@@ -1702,22 +1699,22 @@
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="35" t="s">
         <v>18</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>19</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="10"/>
@@ -1744,26 +1741,26 @@
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>32</v>
-      </c>
       <c r="E14" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="35" t="s">
         <v>18</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>19</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
@@ -1788,26 +1785,26 @@
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="28" t="s">
-        <v>35</v>
-      </c>
       <c r="E15" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="35" t="s">
         <v>18</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>19</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
@@ -1832,22 +1829,22 @@
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="F16" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="28" t="s">
-        <v>40</v>
-      </c>
       <c r="G16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="35" t="s">
         <v>18</v>
-      </c>
-      <c r="H16" s="35" t="s">
-        <v>19</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="10"/>
@@ -1874,22 +1871,22 @@
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>25</v>
-      </c>
       <c r="G17" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="35" t="s">
         <v>18</v>
-      </c>
-      <c r="H17" s="35" t="s">
-        <v>19</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="10"/>
@@ -1916,28 +1913,28 @@
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
@@ -1962,22 +1959,22 @@
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="35" t="s">
         <v>18</v>
-      </c>
-      <c r="H19" s="35" t="s">
-        <v>19</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="31"/>

--- a/Plan de pruebas.xlsx
+++ b/Plan de pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lobito\Desktop\ChallengeQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18DF2DE-CB84-40F9-848A-3AC904E3C172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF2E232-15DE-40CF-BCEE-87639E5A596E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -274,54 +274,6 @@
   </si>
   <si>
     <r>
-      <t>I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ngresar a la pagina :</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> https://www.saucedemo.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dirigirse al Log In para luego ingresar las siguientes credenciales:
-Usuario: standard_user
-Password: secret_sauce
-Presionar LogIn
-Seleccionar un producto de la lista.
-Acceder al checkout.
-Completar los campos de:
-First Name: Gabriel
-Last Name: Florescu
-Zip/Postal Code: 5272
-Presionar "Continue"
-Presionar "Finish"
-Ir al menu desplegable en el tope izquierdo
-presionar "Logout"</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
@@ -517,6 +469,12 @@
     <t>El usuario debe poder desloguearse luego de realizar la compra.</t>
   </si>
   <si>
+    <t>El Usuario debe poder desloguear.</t>
+  </si>
+  <si>
+    <t>El usuario debe poder desloguear.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -549,15 +507,57 @@
 Usuario: problem_user
 Password: secret_sauce
 Presionar LogIn
-Ir al menu desplegable en el tope izquierdo
+Presionar el menu desplegable en el tope izquierdo
 presionar "Logout"</t>
     </r>
   </si>
   <si>
-    <t>El Usuario debe poder desloguear.</t>
-  </si>
-  <si>
-    <t>El usuario debe poder desloguear.</t>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ngresar a la pagina :</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://www.saucedemo.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dirigirse al Log In para luego ingresar las siguientes credenciales:
+Usuario: standard_user
+Password: secret_sauce
+Presionar LogIn
+Seleccionar un producto de la lista.
+Acceder al checkout.
+Completar los campos de:
+First Name: Gabriel
+Last Name: Florescu
+Zip/Postal Code: 5272
+Presionar "Continue"
+Presionar "Finish"
+Presionar el menu desplegable en el tope izquierdo
+presionar "Logout"</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
@@ -1582,7 +1582,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>17</v>
@@ -1621,7 +1621,7 @@
         <v>22</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" s="28" t="s">
         <v>39</v>
@@ -1663,7 +1663,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" s="28" t="s">
         <v>24</v>
@@ -1705,7 +1705,7 @@
         <v>26</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" s="28" t="s">
         <v>28</v>
@@ -1747,10 +1747,10 @@
         <v>31</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>17</v>
@@ -1794,7 +1794,7 @@
         <v>36</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>17</v>
@@ -1919,7 +1919,7 @@
         <v>26</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="28" t="s">
         <v>28</v>
@@ -1931,10 +1931,10 @@
         <v>19</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
@@ -1959,16 +1959,16 @@
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="28" t="s">
         <v>51</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>53</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>17</v>

--- a/Plan de pruebas.xlsx
+++ b/Plan de pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lobito\Desktop\ChallengeQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF2E232-15DE-40CF-BCEE-87639E5A596E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA3DB95-EE29-42C4-83CC-6AD2D89A4020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="84">
   <si>
     <t>Realizado por: Nicolas Bertoni</t>
   </si>
@@ -559,12 +559,275 @@
 presionar "Logout"</t>
     </r>
   </si>
+  <si>
+    <t>FE-IMG-Store</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ingresar a la pagina :</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://www.saucedemo.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Dirigirse al Log In para luego ingresar las siguientes credenciales:
+Usuario: problem_user
+Password: secret_sauce
+Presionar LogIn
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ingresar a la pagina :</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://www.saucedemo.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Dirigirse al Log In para luego ingresar las siguientes credenciales:
+Usuario: problem_user
+Password: secret_sauce
+Presionar LogIn
+Ir al carrito
+selecciónar  el item "Sauce Labs Backpack"
+</t>
+    </r>
+  </si>
+  <si>
+    <t>FE-Product-Store-carro_compras</t>
+  </si>
+  <si>
+    <t>FE-Product-Store-description</t>
+  </si>
+  <si>
+    <t>Verifique el comportamiento del sistema cuando el user ingresa a la tienda.</t>
+  </si>
+  <si>
+    <t>Deberia seleccionarse y verse la descipcion unicamente del item que el user elige.</t>
+  </si>
+  <si>
+    <t>Verifique el comportamiento del sistema cuando el user selecciona un item.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ingresar a la pagina :</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://www.saucedemo.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Dirigirse al Log In para luego ingresar las siguientes credenciales:
+Usuario: problem_user
+Password: secret_sauce
+Presionar LogIn
+seleccionar el elemento "Sauce Labs Fleece Jacket"
+</t>
+    </r>
+  </si>
+  <si>
+    <t>El item deberia aparecer con la descripcion correspondiente y el precio.</t>
+  </si>
+  <si>
+    <t>Al ingresar con el  problem_user el despliegue del inventario muestra errores textuales en la descripcion de productor y titulos de los mismos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al ingresar con el  problem_user y seleccionar el elemento "Sauce Labs Fleece Jacket", este muestra errores en el titulo (ITEM NOT FOUND),descripción incoherente y error al despliegue del precio. </t>
+  </si>
+  <si>
+    <t>FE-Product-Store-description-price</t>
+  </si>
+  <si>
+    <t>FE-Product-Store-removal</t>
+  </si>
+  <si>
+    <t>Verifique el comportamiento del sistema cuando el user intenta remover un item añadido a la cesta desde la tienda y no del carro de compras.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ingresar a la pagina :</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://www.saucedemo.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Dirigirse al Log In para luego ingresar las siguientes credenciales:
+Usuario: problem_user
+Password: secret_sauce
+Presionar LogIn
+seleccionar un item
+seleccionar remove
+</t>
+    </r>
+  </si>
+  <si>
+    <t>El item deberia desaparecer del carro de compras.</t>
+  </si>
+  <si>
+    <t>Al ingresar con el  problem_user y seleccionar un elemento de la tienda, este luego no se puede remover del carro desde la tienda donde se selecciono.</t>
+  </si>
+  <si>
+    <t>Verificar que las imágenes se desplieguen de manera correcta cuando se ingresa al store</t>
+  </si>
+  <si>
+    <t>El despliegue de imágenes de productos debe ser correcto por cada producto.</t>
+  </si>
+  <si>
+    <t>El despliegue de imágenes dentro del store esta mal, tiene la misma IMG para todo.y no concuerda con los productos.</t>
+  </si>
+  <si>
+    <t>Verifique el comportamiento del sistema cuando el user selecciona un item para añadir al inventario.</t>
+  </si>
+  <si>
+    <t>Al ingresar con el  problem_user  y seleccionar el item "Sauce Labs Backpack" aparece la descripcion de  otro item que no es el correspondiente. El mismo error se repite en los demas items.</t>
+  </si>
+  <si>
+    <t>Los items del inventario deberian aparecer con su descripcion y titulos de forma correcta.</t>
+  </si>
+  <si>
+    <t>Verifique el comportamiento del sistema al ingresar con el standard_user y el problem_user al ingresar un item en el carrito de compras, desloguear y probar con el otro user.</t>
+  </si>
+  <si>
+    <t>No deberia aparecer ningun producto añadido a la canasta si el usuario que inicia sesion no lo hizo. No deberia aparecer la selección de productos de un usuario en otra sesion diferente.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ingresar a la pagina :</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://www.saucedemo.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Dirigirse al Log In para luego ingresar las siguientes credenciales:
+Usuario: standard_user
+Password: secret_sauce
+Presionar LogIn
+Ir al carrito
+Seleccionar "Sauce Labs Backpack"
+Desloguear
+hacer login con problem_user
+password:secret_sauce
+verificar si hay algun item en el carro.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>BE-Product-Store</t>
+  </si>
+  <si>
+    <t>Al ingresar con el  problem_user o en el standard_user y seleccionando "Sauce Labs Backpack" (o un elemento) aparece el ítem  con diferentes sesiones en el carrito sin que el dicho user lo haya seleccionado. Este error sucede en ambos casos. Ingresando primero con el estándar user y luego con el problem user, como así también en viceversa.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -738,8 +1001,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -768,6 +1037,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FFCC4125"/>
       </patternFill>
     </fill>
   </fills>
@@ -896,7 +1171,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1033,6 +1308,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1255,8 +1536,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1569,9 +1850,7 @@
       <c r="A10" s="8">
         <v>1</v>
       </c>
-      <c r="B10" s="9">
-        <v>5</v>
-      </c>
+      <c r="B10" s="9"/>
       <c r="C10" s="28" t="s">
         <v>27</v>
       </c>
@@ -1955,7 +2234,7 @@
     </row>
     <row r="19" spans="1:26" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="28" t="s">
@@ -1995,17 +2274,35 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
+    <row r="20" spans="1:26" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
+        <v>11</v>
+      </c>
       <c r="B20" s="14"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="10"/>
+      <c r="C20" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" s="52" t="s">
+        <v>75</v>
+      </c>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
@@ -2023,18 +2320,36 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
+    <row r="21" spans="1:26" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
+        <v>12</v>
+      </c>
       <c r="B21" s="14"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="13"/>
+      <c r="C21" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="14"/>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
@@ -2051,17 +2366,35 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
+    <row r="22" spans="1:26" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
+        <v>13</v>
+      </c>
       <c r="B22" s="14"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="10"/>
+      <c r="C22" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" s="52" t="s">
+        <v>77</v>
+      </c>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
@@ -2079,17 +2412,35 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
+    <row r="23" spans="1:26" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
+        <v>14</v>
+      </c>
       <c r="B23" s="14"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="10"/>
+      <c r="C23" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="52" t="s">
+        <v>65</v>
+      </c>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
@@ -2107,17 +2458,35 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
+    <row r="24" spans="1:26" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
+        <v>15</v>
+      </c>
       <c r="B24" s="14"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="10"/>
+      <c r="C24" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" s="52" t="s">
+        <v>66</v>
+      </c>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
@@ -2135,17 +2504,35 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
+    <row r="25" spans="1:26" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8">
+        <v>16</v>
+      </c>
       <c r="B25" s="14"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="10"/>
+      <c r="C25" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="J25" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
@@ -8427,7 +8814,20 @@
     <hyperlink ref="E10" r:id="rId8" display="Ingresar a la pagina : https://www.saucedemo.com/v1/_x000a__x000a_Dirigirse al Log In para luego ingresar las siguientes credenciales:_x000a_Usuario: standard_user_x000a_Password: secret_sauce_x000a_Presionar login" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="I18" r:id="rId9" xr:uid="{9081D98E-0A63-43E7-8B5E-4E20DDAFBDFC}"/>
     <hyperlink ref="E19" r:id="rId10" display="https://www.saucedemo.com/" xr:uid="{8611D692-33C3-4AA6-88E3-49CD8DC94090}"/>
+    <hyperlink ref="E20" r:id="rId11" display="https://www.saucedemo.com/" xr:uid="{EE34ACCC-CA0C-488B-A3E4-679E272FFAB1}"/>
+    <hyperlink ref="I20" r:id="rId12" xr:uid="{CAFBCBE9-4ED7-4D9B-8F63-1975FAFCB30D}"/>
+    <hyperlink ref="E21" r:id="rId13" display="https://www.saucedemo.com/" xr:uid="{301A4FD4-345A-4028-B570-8A68BA16E8FA}"/>
+    <hyperlink ref="I21" r:id="rId14" xr:uid="{7F218957-B818-4D6B-93D6-AFC74F132A58}"/>
+    <hyperlink ref="E22" r:id="rId15" display="https://www.saucedemo.com/" xr:uid="{DCC0FCFF-5A1E-4CE8-8767-B5CC024F0E57}"/>
+    <hyperlink ref="I22" r:id="rId16" xr:uid="{040BC82D-BFCA-40D3-A8E2-DAFF7F7F20B0}"/>
+    <hyperlink ref="E23" r:id="rId17" display="https://www.saucedemo.com/" xr:uid="{6D66B1A9-A43B-4997-AD02-B4DDFB53DF86}"/>
+    <hyperlink ref="I23" r:id="rId18" xr:uid="{692ACC96-F588-4C6A-A611-C6E4E25BB832}"/>
+    <hyperlink ref="E24" r:id="rId19" display="https://www.saucedemo.com/" xr:uid="{E82255D7-A1BB-4F8A-BE4B-A173A029102C}"/>
+    <hyperlink ref="I24" r:id="rId20" xr:uid="{12FFC879-0856-455C-BD8E-304E5527671B}"/>
+    <hyperlink ref="E25" r:id="rId21" display="https://www.saucedemo.com/" xr:uid="{6F779F45-7CA0-44CF-975A-2C4773E7B932}"/>
+    <hyperlink ref="I25" r:id="rId22" xr:uid="{B9E13411-9104-4CA1-B791-3CECFE2E7AF3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
--- a/Plan de pruebas.xlsx
+++ b/Plan de pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lobito\Desktop\ChallengeQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA3DB95-EE29-42C4-83CC-6AD2D89A4020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042A107F-45CD-444F-8F98-CFBEB0F8705C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="85">
   <si>
     <t>Realizado por: Nicolas Bertoni</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>JIRA ID</t>
-  </si>
-  <si>
-    <t>Caso gral</t>
   </si>
   <si>
     <t>Descripción del caso.</t>
@@ -152,9 +149,6 @@
   </si>
   <si>
     <t>User Login (standard_user)</t>
-  </si>
-  <si>
-    <t>La plataforma debe validar el checkout al completar los campos requeridos para luego dar los detalles de la factura a realizar con el metodo de envio, metodo de pago y monto total.</t>
   </si>
   <si>
     <t>validación  checkout</t>
@@ -397,9 +391,6 @@
     <t>User Logout (problem_user)</t>
   </si>
   <si>
-    <t>El usuario deberia poder ingresar a la plataforma de forma normal.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -420,9 +411,6 @@
       </rPr>
       <t xml:space="preserve">https://www.saucedemo.com </t>
     </r>
-  </si>
-  <si>
-    <t>No completa el campo "Last Name", de hecho al querer completarlo, borra el campo de first name y entra solo 1 digito de lo que se va tecleando al escribir, sin superar el mismo y modificandose al teclear.</t>
   </si>
   <si>
     <r>
@@ -475,6 +463,9 @@
     <t>El usuario debe poder desloguear.</t>
   </si>
   <si>
+    <t>FE-IMG-Store</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -503,13 +494,191 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Dirigirse al Log In para luego ingresar las siguientes credenciales:
+      <t xml:space="preserve">Dirigirse al Log In para luego ingresar las siguientes credenciales:
 Usuario: problem_user
 Password: secret_sauce
 Presionar LogIn
-Presionar el menu desplegable en el tope izquierdo
-presionar "Logout"</t>
+</t>
     </r>
+  </si>
+  <si>
+    <t>FE-Product-Store-carro_compras</t>
+  </si>
+  <si>
+    <t>Verifique el comportamiento del sistema cuando el user ingresa a la tienda.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ingresar a la pagina :</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://www.saucedemo.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Dirigirse al Log In para luego ingresar las siguientes credenciales:
+Usuario: problem_user
+Password: secret_sauce
+Presionar LogIn
+seleccionar el elemento "Sauce Labs Fleece Jacket"
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Al ingresar con el  problem_user y seleccionar el elemento "Sauce Labs Fleece Jacket", este muestra errores en el titulo (ITEM NOT FOUND),descripción incoherente y error al despliegue del precio. </t>
+  </si>
+  <si>
+    <t>FE-Product-Store-removal</t>
+  </si>
+  <si>
+    <t>Al ingresar con el  problem_user y seleccionar un elemento de la tienda, este luego no se puede remover del carro desde la tienda donde se selecciono.</t>
+  </si>
+  <si>
+    <t>Verificar que las imágenes se desplieguen de manera correcta cuando se ingresa al store</t>
+  </si>
+  <si>
+    <t>El despliegue de imágenes de productos debe ser correcto por cada producto.</t>
+  </si>
+  <si>
+    <t>El despliegue de imágenes dentro del store esta mal, tiene la misma IMG para todo.y no concuerda con los productos.</t>
+  </si>
+  <si>
+    <t>BE-Product-Store</t>
+  </si>
+  <si>
+    <t>Al ingresar con el  problem_user o en el standard_user y seleccionando "Sauce Labs Backpack" (o un elemento) aparece el ítem  con diferentes sesiones en el carrito sin que el dicho user lo haya seleccionado. Este error sucede en ambos casos. Ingresando primero con el estándar user y luego con el problem user, como así también en viceversa.</t>
+  </si>
+  <si>
+    <t>Verifique el comportamiento del sistema cuando el user selecciona un ítem para añadir al inventario.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ingresar a la pagina :</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://www.saucedemo.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Dirigirse al Log In para luego ingresar las siguientes credenciales:
+Usuario: problem_user
+Password: secret_sauce
+Presionar LogIn
+Ir al carrito
+seleccionar  el ítem "Sauce Labs Backpack"
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Debería seleccionarse y verse la descripción únicamente del ítem que el user elige.</t>
+  </si>
+  <si>
+    <t>Al ingresar con el  problem_user  y seleccionar el ítem "Sauce Labs Backpack" aparece la descripción de  otro ítem que no es el correspondiente. El mismo error se repite en los demás ítems.</t>
+  </si>
+  <si>
+    <t>FE-Product-Store-descripción</t>
+  </si>
+  <si>
+    <t>Los ítems del inventario deberían aparecer con su descripción y títulos de forma correcta.</t>
+  </si>
+  <si>
+    <t>Al ingresar con el  problem_user el despliegue del inventario muestra errores textuales en la descripción de productor y títulos de los mismos.</t>
+  </si>
+  <si>
+    <t>FE-Product-Store-descripción-price</t>
+  </si>
+  <si>
+    <t>Verifique el comportamiento del sistema cuando el user selecciona un ítem.</t>
+  </si>
+  <si>
+    <t>El ítem debería aparecer con la descripción correspondiente y el precio.</t>
+  </si>
+  <si>
+    <t>Verifique el comportamiento del sistema cuando el user intenta remover un ítem añadido a la cesta desde la tienda y no del carro de compras.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ingresar a la pagina :</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://www.saucedemo.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Dirigirse al Log In para luego ingresar las siguientes credenciales:
+Usuario: problem_user
+Password: secret_sauce
+Presionar LogIn
+seleccionar un ítem
+seleccionar remove
+</t>
+    </r>
+  </si>
+  <si>
+    <t>El ítem debería desaparecer del carro de compras.</t>
+  </si>
+  <si>
+    <t>El usuario debería poder ingresar a la plataforma de forma normal.</t>
   </si>
   <si>
     <r>
@@ -555,12 +724,12 @@
 Zip/Postal Code: 5272
 Presionar "Continue"
 Presionar "Finish"
-Presionar el menu desplegable en el tope izquierdo
+Presionar el menú desplegable en el tope izquierdo
 presionar "Logout"</t>
     </r>
   </si>
   <si>
-    <t>FE-IMG-Store</t>
+    <t>No completa el campo "Last Name", de hecho al querer completarlo, borra el campo de first name y entra solo 1 digito de lo que se va tecleando al escribir, sin superar el mismo y modificándose al teclear.</t>
   </si>
   <si>
     <r>
@@ -591,188 +760,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Dirigirse al Log In para luego ingresar las siguientes credenciales:
+      <t>Dirigirse al Log In para luego ingresar las siguientes credenciales:
 Usuario: problem_user
 Password: secret_sauce
 Presionar LogIn
-</t>
+Presionar el menú desplegable en el tope izquierdo
+presionar "Logout"</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ingresar a la pagina :</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> https://www.saucedemo.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Dirigirse al Log In para luego ingresar las siguientes credenciales:
-Usuario: problem_user
-Password: secret_sauce
-Presionar LogIn
-Ir al carrito
-selecciónar  el item "Sauce Labs Backpack"
-</t>
-    </r>
-  </si>
-  <si>
-    <t>FE-Product-Store-carro_compras</t>
-  </si>
-  <si>
-    <t>FE-Product-Store-description</t>
-  </si>
-  <si>
-    <t>Verifique el comportamiento del sistema cuando el user ingresa a la tienda.</t>
-  </si>
-  <si>
-    <t>Deberia seleccionarse y verse la descipcion unicamente del item que el user elige.</t>
-  </si>
-  <si>
-    <t>Verifique el comportamiento del sistema cuando el user selecciona un item.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ingresar a la pagina :</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> https://www.saucedemo.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Dirigirse al Log In para luego ingresar las siguientes credenciales:
-Usuario: problem_user
-Password: secret_sauce
-Presionar LogIn
-seleccionar el elemento "Sauce Labs Fleece Jacket"
-</t>
-    </r>
-  </si>
-  <si>
-    <t>El item deberia aparecer con la descripcion correspondiente y el precio.</t>
-  </si>
-  <si>
-    <t>Al ingresar con el  problem_user el despliegue del inventario muestra errores textuales en la descripcion de productor y titulos de los mismos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Al ingresar con el  problem_user y seleccionar el elemento "Sauce Labs Fleece Jacket", este muestra errores en el titulo (ITEM NOT FOUND),descripción incoherente y error al despliegue del precio. </t>
-  </si>
-  <si>
-    <t>FE-Product-Store-description-price</t>
-  </si>
-  <si>
-    <t>FE-Product-Store-removal</t>
-  </si>
-  <si>
-    <t>Verifique el comportamiento del sistema cuando el user intenta remover un item añadido a la cesta desde la tienda y no del carro de compras.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ingresar a la pagina :</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> https://www.saucedemo.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Dirigirse al Log In para luego ingresar las siguientes credenciales:
-Usuario: problem_user
-Password: secret_sauce
-Presionar LogIn
-seleccionar un item
-seleccionar remove
-</t>
-    </r>
-  </si>
-  <si>
-    <t>El item deberia desaparecer del carro de compras.</t>
-  </si>
-  <si>
-    <t>Al ingresar con el  problem_user y seleccionar un elemento de la tienda, este luego no se puede remover del carro desde la tienda donde se selecciono.</t>
-  </si>
-  <si>
-    <t>Verificar que las imágenes se desplieguen de manera correcta cuando se ingresa al store</t>
-  </si>
-  <si>
-    <t>El despliegue de imágenes de productos debe ser correcto por cada producto.</t>
-  </si>
-  <si>
-    <t>El despliegue de imágenes dentro del store esta mal, tiene la misma IMG para todo.y no concuerda con los productos.</t>
-  </si>
-  <si>
-    <t>Verifique el comportamiento del sistema cuando el user selecciona un item para añadir al inventario.</t>
-  </si>
-  <si>
-    <t>Al ingresar con el  problem_user  y seleccionar el item "Sauce Labs Backpack" aparece la descripcion de  otro item que no es el correspondiente. El mismo error se repite en los demas items.</t>
-  </si>
-  <si>
-    <t>Los items del inventario deberian aparecer con su descripcion y titulos de forma correcta.</t>
-  </si>
-  <si>
-    <t>Verifique el comportamiento del sistema al ingresar con el standard_user y el problem_user al ingresar un item en el carrito de compras, desloguear y probar con el otro user.</t>
-  </si>
-  <si>
-    <t>No deberia aparecer ningun producto añadido a la canasta si el usuario que inicia sesion no lo hizo. No deberia aparecer la selección de productos de un usuario en otra sesion diferente.</t>
+    <t>Verifique el comportamiento del sistema al ingresar con el standard_user y el problem_user al ingresar un ítem en el carrito de compras, desloguear y probar con el otro user.</t>
   </si>
   <si>
     <r>
@@ -812,15 +809,21 @@
 Desloguear
 hacer login con problem_user
 password:secret_sauce
-verificar si hay algun item en el carro.
+verificar si hay algún ítem en el carro.
 </t>
     </r>
   </si>
   <si>
-    <t>BE-Product-Store</t>
+    <t>No debería aparecer ningún producto añadido a la canasta si el usuario que inicia sesión no lo hizo. No debería aparecer la selección de productos de un usuario en otra sesión diferente.</t>
   </si>
   <si>
-    <t>Al ingresar con el  problem_user o en el standard_user y seleccionando "Sauce Labs Backpack" (o un elemento) aparece el ítem  con diferentes sesiones en el carrito sin que el dicho user lo haya seleccionado. Este error sucede en ambos casos. Ingresando primero con el estándar user y luego con el problem user, como así también en viceversa.</t>
+    <t>Caso Gral.</t>
+  </si>
+  <si>
+    <t>La plataforma debe validar el checkout al completar los campos requeridos para luego dar los detalles de la factura a realizar con el método de envio, método de pago y monto total.</t>
+  </si>
+  <si>
+    <t>La plataforma debe validar el checkout al completar los campos requeridos para luego dar los detalles de la factura a realizar con el método de envío, método de pago y monto total.</t>
   </si>
 </sst>
 </file>
@@ -1280,6 +1283,12 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1308,12 +1317,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1536,8 +1539,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1555,20 +1558,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="43"/>
+      <c r="A1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="45"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -1583,20 +1586,20 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="44"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="43"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="45"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1611,20 +1614,20 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="39"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="41"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1639,22 +1642,22 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="39"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="41"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1669,22 +1672,22 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="39"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="41"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -1699,22 +1702,22 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="39"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="41"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -1729,22 +1732,22 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="39"/>
+      <c r="A7" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="41"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1759,24 +1762,24 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="49"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="38" t="s">
+      <c r="A8" s="51"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="39"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="41"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="50" t="s">
+      <c r="K8" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="39"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="41"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1798,40 +1801,40 @@
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="M9" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1852,22 +1855,22 @@
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="G10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="10"/>
@@ -1894,22 +1897,22 @@
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>22</v>
-      </c>
       <c r="E11" s="32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="35" t="s">
         <v>17</v>
-      </c>
-      <c r="H11" s="35" t="s">
-        <v>18</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="10"/>
@@ -1936,22 +1939,22 @@
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>24</v>
-      </c>
       <c r="G12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="35" t="s">
         <v>17</v>
-      </c>
-      <c r="H12" s="35" t="s">
-        <v>18</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="10"/>
@@ -1978,22 +1981,22 @@
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="G13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="35" t="s">
         <v>17</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>18</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="10"/>
@@ -2020,26 +2023,26 @@
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="35" t="s">
         <v>17</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>18</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
@@ -2064,26 +2067,26 @@
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D15" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="33" t="s">
-        <v>36</v>
-      </c>
       <c r="F15" s="28" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="G15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="35" t="s">
         <v>17</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>18</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
@@ -2108,22 +2111,22 @@
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>39</v>
-      </c>
       <c r="G16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="35" t="s">
         <v>17</v>
-      </c>
-      <c r="H16" s="35" t="s">
-        <v>18</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="10"/>
@@ -2150,22 +2153,22 @@
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>24</v>
-      </c>
       <c r="G17" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="35" t="s">
         <v>17</v>
-      </c>
-      <c r="H17" s="35" t="s">
-        <v>18</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="10"/>
@@ -2192,28 +2195,28 @@
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
@@ -2238,22 +2241,22 @@
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="35" t="s">
         <v>17</v>
-      </c>
-      <c r="H19" s="35" t="s">
-        <v>18</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="31"/>
@@ -2280,28 +2283,28 @@
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="28" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="51" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="J20" s="52" t="s">
-        <v>75</v>
+        <v>42</v>
+      </c>
+      <c r="J20" s="39" t="s">
+        <v>59</v>
       </c>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
@@ -2326,28 +2329,28 @@
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="28" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="D21" s="28" t="s">
         <v>79</v>
       </c>
       <c r="E21" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="F21" s="28" t="s">
-        <v>80</v>
-      </c>
       <c r="G21" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="51" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="I21" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21" s="52" t="s">
-        <v>83</v>
+        <v>42</v>
+      </c>
+      <c r="J21" s="39" t="s">
+        <v>61</v>
       </c>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
@@ -2372,28 +2375,28 @@
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="28" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="51" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="J22" s="52" t="s">
-        <v>77</v>
+        <v>42</v>
+      </c>
+      <c r="J22" s="39" t="s">
+        <v>65</v>
       </c>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
@@ -2418,28 +2421,28 @@
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="28" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="51" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="I23" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="J23" s="52" t="s">
-        <v>65</v>
+        <v>42</v>
+      </c>
+      <c r="J23" s="39" t="s">
+        <v>68</v>
       </c>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
@@ -2464,28 +2467,28 @@
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="28" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="51" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="H24" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="I24" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="J24" s="52" t="s">
-        <v>66</v>
+        <v>42</v>
+      </c>
+      <c r="J24" s="39" t="s">
+        <v>54</v>
       </c>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
@@ -2510,28 +2513,28 @@
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="28" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="51" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="H25" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="J25" s="52" t="s">
-        <v>72</v>
+        <v>42</v>
+      </c>
+      <c r="J25" s="39" t="s">
+        <v>56</v>
       </c>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
